--- a/03_ubuntu_memo/201027_YOLOv5_research/201030_result/201030_学習推論評価まとめ.xlsx
+++ b/03_ubuntu_memo/201027_YOLOv5_research/201030_result/201030_学習推論評価まとめ.xlsx
@@ -379,6 +379,61 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1645920</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3" descr="https://lionbridge.ai/wp-content/uploads/2020/06/image1.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5219700" y="1143000"/>
+          <a:ext cx="3413760" cy="1706880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -676,7 +731,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
